--- a/biology/Zoologie/Desidae/Desidae.xlsx
+++ b/biology/Zoologie/Desidae/Desidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Desidae sont une famille d'araignées aranéomorphes[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Desidae sont une famille d'araignées aranéomorphes.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de cette famille se rencontrent en Océanie, en Asie, en Amérique et en Afrique[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de cette famille se rencontrent en Océanie, en Asie, en Amérique et en Afrique.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce sont des araignées à l'habitat très particulier : elles vivent dans la zone intertidale. 
 </t>
@@ -573,7 +589,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La plupart des espèces sont d'apparence sombre. Elles ont des filières très allongées.  
 </t>
@@ -604,9 +622,11 @@
           <t>Paléontologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette famille est connue depuis le Paléogène[2].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette famille est connue depuis le Paléogène.
 </t>
         </is>
       </c>
@@ -635,9 +655,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Selon World Spider Catalog                                (version 24, 01/06/2023)[1] :
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Selon World Spider Catalog                                (version 24, 01/06/2023) :
 Akatorea Forster &amp; Wilton, 1973
 Amphinecta Simon, 1898
 Austmusia Gray, 1983
@@ -728,11 +750,13 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette famille a été décrite par Pocock en 1895.
-La composition de cette famille a été modifiée par Wheeler et al. en 2017 : les Amphinectidae ont été inclus et les Toxopidae exclus[3].
-Cette famille rassemble 323 espèces dans 63 genres[1].
+La composition de cette famille a été modifiée par Wheeler et al. en 2017 : les Amphinectidae ont été inclus et les Toxopidae exclus.
+Cette famille rassemble 323 espèces dans 63 genres.
 </t>
         </is>
       </c>
@@ -761,7 +785,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>Pocock, 1895 : « Description of two new spiders obtained by Messrs J. J. Quelch and F. MacConnel on the summit of Mount Roraima, in Demerara; with a note upon the systematic position of the genus Desis. » Annals and Magazine of Natural History, sér. 6, vol. 16, p. 139-143 (texte intégral).</t>
         </is>
